--- a/Зведена таблиця.xlsx
+++ b/Зведена таблиця.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>№</t>
   </si>
@@ -130,6 +130,9 @@
   </si>
   <si>
     <t>in progress</t>
+  </si>
+  <si>
+    <t>Bootstrap -  ознайомився після того, як зверстав сайт, тому не додав у цей проект</t>
   </si>
 </sst>
 </file>
@@ -159,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -415,11 +418,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -480,6 +509,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -762,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G17"/>
+  <dimension ref="B1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -773,7 +808,7 @@
     <col min="1" max="1" width="6.33203125" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" customWidth="1"/>
     <col min="3" max="3" width="28.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.77734375" customWidth="1"/>
+    <col min="4" max="4" width="50.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.88671875" bestFit="1" customWidth="1"/>
@@ -1042,7 +1077,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:7" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="18">
         <v>13</v>
       </c>
@@ -1082,7 +1117,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D17" s="20" t="s">
         <v>20</v>
       </c>
@@ -1095,8 +1130,18 @@
         <v>19.3</v>
       </c>
     </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C19" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="27"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C19:D19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="E5:F5" formulaRange="1"/>
   </ignoredErrors>
